--- a/Compliance Checklist Tools.xlsx
+++ b/Compliance Checklist Tools.xlsx
@@ -1,187 +1,244 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.sewchand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5EAE5EF-60CC-4CC4-8231-2B8443AEB584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+  <si>
+    <t>Compliance Check</t>
+  </si>
+  <si>
+    <t>Approved Tools</t>
+  </si>
+  <si>
+    <t>Pending Approval/Suggested</t>
+  </si>
+  <si>
+    <t>Others in use/to Consider</t>
+  </si>
+  <si>
+    <t>On Prem</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
   <si>
     <t>Unit Testing</t>
   </si>
   <si>
-    <t>Static Code Analysis</t>
-  </si>
-  <si>
-    <t>Secrets Scanning</t>
-  </si>
-  <si>
-    <t>SAST (Static Application Securit Testing)</t>
-  </si>
-  <si>
-    <t>Data Modelling Standards</t>
-  </si>
-  <si>
-    <t>Functional &amp; Regression testing</t>
-  </si>
-  <si>
-    <t>Performance testing</t>
-  </si>
-  <si>
-    <t>ITSG-33</t>
-  </si>
-  <si>
-    <t>DAST (Dynamic application Securit Testing)</t>
-  </si>
-  <si>
-    <t>IAST (Interactice application security testing)</t>
-  </si>
-  <si>
-    <t>RASP (Runtime application self-protection)</t>
-  </si>
-  <si>
-    <t>SCA (Software composition analysis)</t>
-  </si>
-  <si>
-    <t>GoC Web standards</t>
-  </si>
-  <si>
-    <t>Official Languages act</t>
-  </si>
-  <si>
-    <t>WCAG 2.1</t>
-  </si>
-  <si>
-    <t>Database compliance scanning</t>
-  </si>
-  <si>
-    <t>authority to operate</t>
-  </si>
-  <si>
-    <t>client sign-off (via uat/client demo)</t>
-  </si>
-  <si>
-    <t>supporting documentation (SLA, BCP)</t>
-  </si>
-  <si>
-    <t>Smoke tests</t>
-  </si>
-  <si>
-    <t>Licensing validation</t>
-  </si>
-  <si>
-    <t>Application performance monitoring</t>
-  </si>
-  <si>
-    <t>Approved Tools</t>
-  </si>
-  <si>
-    <t>Pending Approval/Suggested</t>
-  </si>
-  <si>
-    <t>On Prem</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Others in use/to Consider</t>
-  </si>
-  <si>
-    <t>Compliance Check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* </t>
-  </si>
-  <si>
-    <t>Eclipse IDE (SRU R57067)
-.NET Compiler Platform a.k.a Roslyn
-Toad (SRU R61471)</t>
-  </si>
-  <si>
-    <t>Microfocus Fortify Static Code Analyzer (not in DML)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkstyle (free, not in DML)
-FindBugs/SpotBugs (free, not in DML)
-FindBugs 2 (Open Source, not in DML)
-</t>
-  </si>
-  <si>
-    <t>Selenium
-Cypress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spock
-Cobertura (Free, not in DML)
-JaCoCo (Free, not in DML)  
-OpenClover (Free, not in DML)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junit
+    <t>Junit
 MS Test ((SRU R53826)
 SQL Developer Unit Tests (SRU R61746)
 Toad (SRU R61471)
 Jcov - JDK (SRU R62478)
 EclEmma - Eclipse IDE (SRU R57067)
 Visual Studio code coverage feature (SRU R53826)
+xUnit</t>
+  </si>
+  <si>
+    <t>Spock
+Cobertura (Free, not in DML)
+JaCoCo (Free, not in DML)  
+OpenClover (Free, not in DML)
+Nsubstitute 
+xUnit
+AutoFixture
+FluentAssertions
+Jest</t>
+  </si>
+  <si>
+    <t>Static Code Analysis</t>
+  </si>
+  <si>
+    <t>Eclipse IDE (SRU R57067)
+.NET Compiler Platform a.k.a Roslyn
+Toad (SRU R61471)
+SonarLint
+SonarQube</t>
+  </si>
+  <si>
+    <t>Microfocus Fortify Static Code Analyzer (not in DML)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkstyle (free, not in DML)
+FindBugs/SpotBugs (free, not in DML)
+FindBugs 2 (Open Source, not in DML)
 </t>
   </si>
   <si>
-    <t>IBM Rational Functional Tester (SRU 36374)</t>
+    <t>Secrets Scanning</t>
+  </si>
+  <si>
+    <t>git-seekret</t>
+  </si>
+  <si>
+    <t>Azure KeyVault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
+  </si>
+  <si>
+    <t>SAST (Static Application Securit Testing)</t>
+  </si>
+  <si>
+    <t>SonarLint
+SonarQube</t>
+  </si>
+  <si>
+    <t>Data Modelling Standards</t>
+  </si>
+  <si>
+    <t>Functional &amp; Regression testing</t>
+  </si>
+  <si>
+    <t>IBM Rational Functional Tester (SRU 36374)IBM Rational Functional Tester (SRU 36374)
+Azure DevOps (TFS)
+TAF (internally built with selenium backend)
+Parasoft</t>
+  </si>
+  <si>
+    <t>Selenium
+Cypress
+Postman
+Citrus</t>
+  </si>
+  <si>
+    <t>Performance testing</t>
   </si>
   <si>
     <t>MicroFocus LoadRunner Virtual User Generator (SRU 63913 )</t>
   </si>
   <si>
+    <t>jMeter</t>
+  </si>
+  <si>
+    <t>ITSG-33</t>
+  </si>
+  <si>
+    <t>IBM Appscan</t>
+  </si>
+  <si>
+    <t>Aqua (for containers)
+Jfrog Xray (pilot in DML)</t>
+  </si>
+  <si>
+    <t>DAST (Dynamic application Securit Testing)</t>
+  </si>
+  <si>
     <t>Microfocus Fortify WebInspect</t>
   </si>
   <si>
+    <t>IAST (Interactice application security testing)</t>
+  </si>
+  <si>
+    <t>RASP (Runtime application self-protection)</t>
+  </si>
+  <si>
+    <t>SCA (Software composition analysis)</t>
+  </si>
+  <si>
     <t>X-Ray (Artifactory, in PoC mode in DML)
-Sonatype Nexus Lifecycle(not in DML)</t>
+Sonatype Nexus Vulnerability Scanner Lifecycle(not in DML)</t>
+  </si>
+  <si>
+    <t>GoC Web standards</t>
   </si>
   <si>
     <t>Unit Test could check that Web templates/CDTS is used.  Version is added in page header</t>
   </si>
   <si>
+    <t>Official Languages act</t>
+  </si>
+  <si>
     <t>unit test could check language toggle and verify text displayed</t>
+  </si>
+  <si>
+    <t>WCAG 2.1</t>
   </si>
   <si>
     <t>Compliance Sheriff (SRU 54921)
 JAWS (SRU 58969)</t>
   </si>
   <si>
+    <t>Axe-Core</t>
+  </si>
+  <si>
+    <t>Database compliance scanning</t>
+  </si>
+  <si>
+    <t>authority to operate</t>
+  </si>
+  <si>
+    <t>client sign-off (via uat/client demo)</t>
+  </si>
+  <si>
+    <t>supporting documentation (SLA, BCP)</t>
+  </si>
+  <si>
+    <t>Smoke tests</t>
+  </si>
+  <si>
     <t>selected Unit Tests, Reg &amp; func Tests</t>
   </si>
   <si>
+    <t>Selenium
+Puppeteer</t>
+  </si>
+  <si>
+    <t>Licensing validation</t>
+  </si>
+  <si>
+    <t>Jfrog Xray (pilot in DML)</t>
+  </si>
+  <si>
+    <t>Application performance monitoring</t>
+  </si>
+  <si>
     <t xml:space="preserve">CA Suite of Tools (SRU 62310) </t>
+  </si>
+  <si>
+    <t>Prometheus
+Grafana
+Elastic
+Kibana
+Fluentd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +336,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -303,17 +360,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -325,6 +373,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -334,11 +409,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -623,237 +695,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="37.21875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20.25" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="150">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="90">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="105">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="D12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="45">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="75">
       <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -865,4 +964,163 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D5818772A6732242AF909C7289977039" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c76343d22d716d4ad1667dad5b715fc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf8d9fdf-4125-4b9e-90cc-178121cbf199" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="244fb839dfa9e270ea25c0aa8a7bd589" ns2:_="">
+    <xsd:import namespace="bf8d9fdf-4125-4b9e-90cc-178121cbf199"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bf8d9fdf-4125-4b9e-90cc-178121cbf199" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B303E834-E419-44B6-A52C-C45065BBF44F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4134BC-BD40-427D-8FD0-56A3991CA48A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3556F0B6-94C5-4916-BF9D-5877D9D82355}"/>
 </file>